--- a/ofc/estimates/सानागाउँ पिपलबोट देखी खत्री पाखा/V_सानागाउँ पिपलबोट देखी खत्री पाखा.xlsx
+++ b/ofc/estimates/सानागाउँ पिपलबोट देखी खत्री पाखा/V_सानागाउँ पिपलबोट देखी खत्री पाखा.xlsx
@@ -48,7 +48,7 @@
     <definedName name="description_783">[1]Abstract!$B$301</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'drain only'!$A$1:$K$40</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'full estimate'!$A$1:$K$49</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">M!$A$1:$K$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">M!$A$1:$K$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'only wall'!$A$1:$K$44</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">V!$A$1:$K$44</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="5">'drain only'!$1:$8</definedName>
@@ -258,19 +258,19 @@
     <t xml:space="preserve">F.Y:2081/2082             </t>
   </si>
   <si>
-    <t xml:space="preserve">Date:2082/02/22        </t>
-  </si>
-  <si>
     <t>Detail Valuated Sheet</t>
-  </si>
-  <si>
-    <t>Date:2082/02/21</t>
   </si>
   <si>
     <t>Total Valuated</t>
   </si>
   <si>
     <t>Detail Quantity Measurement Sheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date:2082/02/25        </t>
+  </si>
+  <si>
+    <t>Date:2082/02/25</t>
   </si>
 </sst>
 </file>
@@ -440,7 +440,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -593,32 +593,40 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -635,29 +643,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1276,7 +1279,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S101"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
@@ -1295,113 +1298,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
     </row>
     <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
     </row>
     <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="82" t="s">
+      <c r="H6" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="82"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="87" t="s">
+      <c r="A7" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="88" t="s">
+      <c r="H7" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="88"/>
-      <c r="J7" s="88"/>
-      <c r="K7" s="88"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
     </row>
     <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -2183,11 +2186,11 @@
       <c r="B39" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C39" s="86">
+      <c r="C39" s="75">
         <f>J37</f>
         <v>338434.86688251753</v>
       </c>
-      <c r="D39" s="86"/>
+      <c r="D39" s="75"/>
       <c r="E39" s="39">
         <v>100</v>
       </c>
@@ -2203,10 +2206,10 @@
       <c r="B40" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="89">
+      <c r="C40" s="78">
         <v>300000</v>
       </c>
-      <c r="D40" s="89"/>
+      <c r="D40" s="78"/>
       <c r="E40" s="39"/>
       <c r="F40" s="49"/>
       <c r="G40" s="48"/>
@@ -2220,11 +2223,11 @@
       <c r="B41" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C41" s="89">
+      <c r="C41" s="78">
         <f>C40-C43-C44</f>
         <v>285000</v>
       </c>
-      <c r="D41" s="89"/>
+      <c r="D41" s="78"/>
       <c r="E41" s="39">
         <f>C41/C39*100</f>
         <v>84.211181497127882</v>
@@ -2241,11 +2244,11 @@
       <c r="B42" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="86">
+      <c r="C42" s="75">
         <f>C39-C41</f>
         <v>53434.866882517526</v>
       </c>
-      <c r="D42" s="86"/>
+      <c r="D42" s="75"/>
       <c r="E42" s="39">
         <f>100-E41</f>
         <v>15.788818502872118</v>
@@ -2262,11 +2265,11 @@
       <c r="B43" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C43" s="86">
+      <c r="C43" s="75">
         <f>C40*0.03</f>
         <v>9000</v>
       </c>
-      <c r="D43" s="86"/>
+      <c r="D43" s="75"/>
       <c r="E43" s="39">
         <v>3</v>
       </c>
@@ -2282,11 +2285,3147 @@
       <c r="B44" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="86">
+      <c r="C44" s="75">
         <f>C40*0.02</f>
         <v>6000</v>
       </c>
-      <c r="D44" s="86"/>
+      <c r="D44" s="75"/>
+      <c r="E44" s="39">
+        <v>2</v>
+      </c>
+      <c r="F44" s="49"/>
+      <c r="G44" s="48"/>
+      <c r="H44" s="48"/>
+      <c r="I44" s="48"/>
+      <c r="J44" s="48"/>
+      <c r="K44" s="49"/>
+    </row>
+    <row r="45" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="57"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="57"/>
+      <c r="G45" s="57"/>
+      <c r="H45" s="57"/>
+      <c r="I45" s="57"/>
+      <c r="J45" s="57"/>
+      <c r="K45" s="57"/>
+    </row>
+    <row r="46" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
+  </mergeCells>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;LPrepared By:
+&amp;CChecked By:
+&amp;RApproved By:
+</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+    </row>
+    <row r="2" spans="1:11" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="73" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+    </row>
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="73" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+    </row>
+    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="90" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
+    </row>
+    <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="86">
+        <f>F29</f>
+        <v>338434.86688251753</v>
+      </c>
+      <c r="D6" s="87"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="86">
+        <f>I29</f>
+        <v>339276.18256575754</v>
+      </c>
+      <c r="K6" s="87"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="I7" s="82" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="82"/>
+      <c r="K7" s="82"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="69" t="str">
+        <f>'only wall'!A6:F6</f>
+        <v xml:space="preserve">Project:- सानागाउँ पिपलबोट देखी खत्री पाखा </v>
+      </c>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="I8" s="83" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" s="83"/>
+      <c r="K8" s="83"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="84" t="str">
+        <f>'only wall'!A7:F7</f>
+        <v>Location:- Shankharapur Municipality 9</v>
+      </c>
+      <c r="B9" s="84"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="I9" s="83" t="s">
+        <v>63</v>
+      </c>
+      <c r="J9" s="83"/>
+      <c r="K9" s="83"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="79" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="79" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="85" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="85"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="79" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="80" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="79"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="79"/>
+      <c r="K12" s="80"/>
+    </row>
+    <row r="13" spans="1:11" s="1" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="27">
+        <f>'only wall'!A9</f>
+        <v>1</v>
+      </c>
+      <c r="B13" s="32" t="str">
+        <f>'only wall'!B9</f>
+        <v>Earthwork Excavation in Cutting., Roadway Excavation in all types of Soil by Mechanical  Means ., Road way Excavation in  all types of soil as per Drawing and technical specifications  including  removal of stumps and other deleterious matter, all lifts and lead as per Drawing and instruction of the Engineer.</v>
+      </c>
+      <c r="C13" s="12" t="str">
+        <f>'only wall'!H12</f>
+        <v>m3</v>
+      </c>
+      <c r="D13" s="12">
+        <f>'only wall'!G12</f>
+        <v>39.143553794574828</v>
+      </c>
+      <c r="E13" s="12">
+        <f>'only wall'!I12</f>
+        <v>64.63</v>
+      </c>
+      <c r="F13" s="12">
+        <f>D13*E13</f>
+        <v>2529.8478817433711</v>
+      </c>
+      <c r="G13" s="12">
+        <f>V!G12</f>
+        <v>39.213553794574821</v>
+      </c>
+      <c r="H13" s="12">
+        <f>V!I12</f>
+        <v>64.63</v>
+      </c>
+      <c r="I13" s="12">
+        <f>G13*H13</f>
+        <v>2534.3719817433707</v>
+      </c>
+      <c r="J13" s="28">
+        <f>I13-F13</f>
+        <v>4.5240999999996347</v>
+      </c>
+      <c r="K13" s="14"/>
+    </row>
+    <row r="14" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="27"/>
+      <c r="B14" s="91" t="str">
+        <f>'only wall'!B13</f>
+        <v>VAT calculation</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12">
+        <f>'only wall'!J13</f>
+        <v>272.58266077415425</v>
+      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12">
+        <f>V!J13</f>
+        <v>273.07011744082087</v>
+      </c>
+      <c r="J14" s="28">
+        <f>I14-F14</f>
+        <v>0.48745666666661691</v>
+      </c>
+      <c r="K14" s="14"/>
+    </row>
+    <row r="15" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="27"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="14"/>
+    </row>
+    <row r="16" spans="1:11" s="1" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="27">
+        <f>'only wall'!A15</f>
+        <v>2</v>
+      </c>
+      <c r="B16" s="32" t="str">
+        <f>'only wall'!B15</f>
+        <v>Providing suitable material and Back filling behind abutment, wing wall and return wall complete as per Drawing and Technical Specifications., locally available material including compaction by tamping rod</v>
+      </c>
+      <c r="C16" s="12" t="str">
+        <f>'only wall'!H17</f>
+        <v>m3</v>
+      </c>
+      <c r="D16" s="12">
+        <f>'only wall'!G17</f>
+        <v>3.75</v>
+      </c>
+      <c r="E16" s="12">
+        <f>'only wall'!I17</f>
+        <v>404.28</v>
+      </c>
+      <c r="F16" s="12">
+        <f>D16*E16</f>
+        <v>1516.05</v>
+      </c>
+      <c r="G16" s="12">
+        <f>V!G17</f>
+        <v>3.75875</v>
+      </c>
+      <c r="H16" s="12">
+        <f>V!I17</f>
+        <v>404.28</v>
+      </c>
+      <c r="I16" s="12">
+        <f>G16*H16</f>
+        <v>1519.58745</v>
+      </c>
+      <c r="J16" s="28">
+        <f>I16-F16</f>
+        <v>3.5374500000000353</v>
+      </c>
+      <c r="K16" s="14"/>
+    </row>
+    <row r="17" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="27"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="14"/>
+    </row>
+    <row r="18" spans="1:11" s="1" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="27">
+        <f>'only wall'!A19</f>
+        <v>3</v>
+      </c>
+      <c r="B18" s="32" t="str">
+        <f>'only wall'!B19</f>
+        <v>Providing and laying of hand pack Stone soling with 150 to 200 mm thick stones and packing with smaller stone on prepared surface as per Drawing and Technical Specifications.</v>
+      </c>
+      <c r="C18" s="12" t="str">
+        <f>'only wall'!H21</f>
+        <v>m3</v>
+      </c>
+      <c r="D18" s="12">
+        <f>'only wall'!G21</f>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="E18" s="12">
+        <f>'only wall'!I21</f>
+        <v>4561.53</v>
+      </c>
+      <c r="F18" s="12">
+        <f>D18*E18</f>
+        <v>8210.753999999999</v>
+      </c>
+      <c r="G18" s="12">
+        <f>V!G21</f>
+        <v>1.8042</v>
+      </c>
+      <c r="H18" s="12">
+        <f>V!I21</f>
+        <v>4561.53</v>
+      </c>
+      <c r="I18" s="12">
+        <f>G18*H18</f>
+        <v>8229.912425999999</v>
+      </c>
+      <c r="J18" s="28">
+        <f>I18-F18</f>
+        <v>19.158425999999963</v>
+      </c>
+      <c r="K18" s="14"/>
+    </row>
+    <row r="19" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="27"/>
+      <c r="B19" s="91" t="str">
+        <f>'only wall'!B22</f>
+        <v>VAT calculation</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12">
+        <f>'only wall'!J22</f>
+        <v>723.18167999999991</v>
+      </c>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12">
+        <f>V!J22</f>
+        <v>724.86910392000004</v>
+      </c>
+      <c r="J19" s="28">
+        <f>I19-F19</f>
+        <v>1.6874239200001284</v>
+      </c>
+      <c r="K19" s="14"/>
+    </row>
+    <row r="20" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="27"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="14"/>
+    </row>
+    <row r="21" spans="1:11" s="1" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A21" s="27">
+        <f>'only wall'!A24</f>
+        <v>4</v>
+      </c>
+      <c r="B21" s="32" t="str">
+        <f>'only wall'!B24</f>
+        <v>Providing and laying of Plain/Reinforced Cement Concrete in Foundation complete as per Drawing and Technical Specifications, PCC Grade M 15</v>
+      </c>
+      <c r="C21" s="12" t="str">
+        <f>'only wall'!H27</f>
+        <v>m3</v>
+      </c>
+      <c r="D21" s="12">
+        <f>'only wall'!G27</f>
+        <v>1.0499999999999998</v>
+      </c>
+      <c r="E21" s="12">
+        <f>'only wall'!I27</f>
+        <v>10634.5</v>
+      </c>
+      <c r="F21" s="12">
+        <f>D21*E21</f>
+        <v>11166.224999999999</v>
+      </c>
+      <c r="G21" s="12">
+        <f>V!G27</f>
+        <v>1.0571000000000002</v>
+      </c>
+      <c r="H21" s="12">
+        <f>V!I27</f>
+        <v>10634.5</v>
+      </c>
+      <c r="I21" s="12">
+        <f>G21*H21</f>
+        <v>11241.729950000001</v>
+      </c>
+      <c r="J21" s="28">
+        <f>I21-F21</f>
+        <v>75.504950000002282</v>
+      </c>
+      <c r="K21" s="14"/>
+    </row>
+    <row r="22" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="27"/>
+      <c r="B22" s="91" t="str">
+        <f>'only wall'!B28</f>
+        <v>VAT calculation</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12">
+        <f>'only wall'!J28</f>
+        <v>1101.48766</v>
+      </c>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12">
+        <f>V!J28</f>
+        <v>1108.9358146533336</v>
+      </c>
+      <c r="J22" s="28">
+        <f>I22-F22</f>
+        <v>7.4481546533336314</v>
+      </c>
+      <c r="K22" s="14"/>
+    </row>
+    <row r="23" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="27"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="14"/>
+    </row>
+    <row r="24" spans="1:11" s="1" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="27">
+        <f>'only wall'!A30</f>
+        <v>5</v>
+      </c>
+      <c r="B24" s="32" t="str">
+        <f>'only wall'!B30</f>
+        <v>Random Rubble Masonry, Providing and laying of Stone Masonry Work in Cement Mortar 1:6 in Foundation complete as per Drawing and Technical Specifications.</v>
+      </c>
+      <c r="C24" s="12" t="str">
+        <f>'only wall'!H32</f>
+        <v>m3</v>
+      </c>
+      <c r="D24" s="12">
+        <f>'only wall'!G32</f>
+        <v>30</v>
+      </c>
+      <c r="E24" s="12">
+        <f>'only wall'!I32</f>
+        <v>9709.43</v>
+      </c>
+      <c r="F24" s="12">
+        <f>D24*E24</f>
+        <v>291282.90000000002</v>
+      </c>
+      <c r="G24" s="12">
+        <f>V!G32</f>
+        <v>30.07</v>
+      </c>
+      <c r="H24" s="12">
+        <f>V!I32</f>
+        <v>9709.43</v>
+      </c>
+      <c r="I24" s="12">
+        <f>G24*H24</f>
+        <v>291962.5601</v>
+      </c>
+      <c r="J24" s="28">
+        <f>I24-F24</f>
+        <v>679.66009999997914</v>
+      </c>
+      <c r="K24" s="14"/>
+    </row>
+    <row r="25" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="27"/>
+      <c r="B25" s="91" t="str">
+        <f>'only wall'!B33</f>
+        <v>VAT calculation</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12">
+        <f>'only wall'!J33</f>
+        <v>21131.838000000003</v>
+      </c>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12">
+        <f>V!J33</f>
+        <v>21181.145622</v>
+      </c>
+      <c r="J25" s="28">
+        <f>I25-F25</f>
+        <v>49.307621999996627</v>
+      </c>
+      <c r="K25" s="14"/>
+    </row>
+    <row r="26" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="27"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="14"/>
+    </row>
+    <row r="27" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="27">
+        <f>'only wall'!A35</f>
+        <v>6</v>
+      </c>
+      <c r="B27" s="31" t="str">
+        <f>'only wall'!B35</f>
+        <v>Information board (सुचना पाटि)</v>
+      </c>
+      <c r="C27" s="12" t="str">
+        <f>'only wall'!H35</f>
+        <v>no.</v>
+      </c>
+      <c r="D27" s="12">
+        <f>'only wall'!G35</f>
+        <v>1</v>
+      </c>
+      <c r="E27" s="12">
+        <f>'only wall'!I35</f>
+        <v>500</v>
+      </c>
+      <c r="F27" s="12">
+        <f>D27*E27</f>
+        <v>500</v>
+      </c>
+      <c r="G27" s="12">
+        <f>V!G35</f>
+        <v>1</v>
+      </c>
+      <c r="H27" s="12">
+        <f>V!I35</f>
+        <v>500</v>
+      </c>
+      <c r="I27" s="12">
+        <f>G27*H27</f>
+        <v>500</v>
+      </c>
+      <c r="J27" s="28">
+        <f>I27-F27</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="14"/>
+    </row>
+    <row r="28" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="14"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7">
+        <f>SUM(F13:F27)</f>
+        <v>338434.86688251753</v>
+      </c>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7">
+        <f>SUM(I13:I27)</f>
+        <v>339276.18256575754</v>
+      </c>
+      <c r="J29" s="13">
+        <f>I29-F29</f>
+        <v>841.31568324001273</v>
+      </c>
+      <c r="K29" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="85" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;LPrepared By:
+&amp;CChecked By:
+&amp;RApproved By:
+</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S106"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
+    <col min="6" max="6" width="8" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" customWidth="1"/>
+    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+    </row>
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+    </row>
+    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="73" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+    </row>
+    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="73" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+    </row>
+    <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="69" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="70" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="76" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="77" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="150" x14ac:dyDescent="0.25">
+      <c r="A9" s="29">
+        <v>1</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="N9" t="s">
+        <v>48</v>
+      </c>
+      <c r="O9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+      <c r="B10" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="36">
+        <v>1</v>
+      </c>
+      <c r="D10" s="38">
+        <f>D17</f>
+        <v>6</v>
+      </c>
+      <c r="E10" s="38">
+        <f>F35/2</f>
+        <v>2</v>
+      </c>
+      <c r="F10" s="38">
+        <v>2.5</v>
+      </c>
+      <c r="G10" s="39">
+        <f>PRODUCT(C10:F10)</f>
+        <v>30</v>
+      </c>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="21"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+    </row>
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
+      <c r="B11" s="37" t="str">
+        <f>B22</f>
+        <v>-for side drain</v>
+      </c>
+      <c r="C11" s="36">
+        <f>C22</f>
+        <v>1</v>
+      </c>
+      <c r="D11" s="38">
+        <f>D22</f>
+        <v>28.040231636696127</v>
+      </c>
+      <c r="E11" s="38">
+        <f>E22</f>
+        <v>1.3</v>
+      </c>
+      <c r="F11" s="38">
+        <v>2</v>
+      </c>
+      <c r="G11" s="39">
+        <f>PRODUCT(C11:F11)</f>
+        <v>72.904602255409927</v>
+      </c>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="21"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+    </row>
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="36">
+        <v>1</v>
+      </c>
+      <c r="D12" s="38">
+        <f>D11</f>
+        <v>28.040231636696127</v>
+      </c>
+      <c r="E12" s="38">
+        <v>4</v>
+      </c>
+      <c r="F12" s="38">
+        <v>0.15</v>
+      </c>
+      <c r="G12" s="39">
+        <f>PRODUCT(C12:F12)</f>
+        <v>16.824138982017676</v>
+      </c>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="21"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+    </row>
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
+      <c r="B13" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="23">
+        <f>SUM(G10:G12)</f>
+        <v>119.7287412374276</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="23">
+        <v>64.63</v>
+      </c>
+      <c r="J13" s="41">
+        <f>G13*I13</f>
+        <v>7738.0685461749454</v>
+      </c>
+      <c r="K13" s="21"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+    </row>
+    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
+      <c r="B14" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="41">
+        <f>0.13*G13*19284/360</f>
+        <v>833.7510443970333</v>
+      </c>
+      <c r="K14" s="21"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+    </row>
+    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="21"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+    </row>
+    <row r="16" spans="1:19" ht="105" x14ac:dyDescent="0.25">
+      <c r="A16" s="18">
+        <v>2</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="21"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+    </row>
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
+      <c r="B17" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="D17" s="38">
+        <f>D21</f>
+        <v>6</v>
+      </c>
+      <c r="E17" s="38">
+        <f>E10/2</f>
+        <v>1</v>
+      </c>
+      <c r="F17" s="38">
+        <f>F10/2</f>
+        <v>1.25</v>
+      </c>
+      <c r="G17" s="39">
+        <f>PRODUCT(C17:F17)</f>
+        <v>3.75</v>
+      </c>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="21"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+    </row>
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="B18" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="23">
+        <f>SUM(G17:G17)</f>
+        <v>3.75</v>
+      </c>
+      <c r="H18" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" s="23">
+        <v>404.28</v>
+      </c>
+      <c r="J18" s="41">
+        <f>G18*I18</f>
+        <v>1516.05</v>
+      </c>
+      <c r="K18" s="21"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+    </row>
+    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="21"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
+    </row>
+    <row r="20" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+      <c r="A20" s="18">
+        <v>3</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="21"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+    </row>
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="18"/>
+      <c r="B21" s="37" t="str">
+        <f>B17</f>
+        <v>-Road</v>
+      </c>
+      <c r="C21" s="36">
+        <f>C10</f>
+        <v>1</v>
+      </c>
+      <c r="D21" s="38">
+        <f>D27</f>
+        <v>6</v>
+      </c>
+      <c r="E21" s="38">
+        <f>E27</f>
+        <v>2</v>
+      </c>
+      <c r="F21" s="38">
+        <v>0.15</v>
+      </c>
+      <c r="G21" s="39">
+        <f>PRODUCT(C21:F21)</f>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="21"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="25"/>
+    </row>
+    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="18"/>
+      <c r="B22" s="37" t="str">
+        <f>B29</f>
+        <v>-for side drain</v>
+      </c>
+      <c r="C22" s="36">
+        <f>C29</f>
+        <v>1</v>
+      </c>
+      <c r="D22" s="38">
+        <f>D29</f>
+        <v>28.040231636696127</v>
+      </c>
+      <c r="E22" s="38">
+        <f>E29</f>
+        <v>1.3</v>
+      </c>
+      <c r="F22" s="38">
+        <v>0.15</v>
+      </c>
+      <c r="G22" s="39">
+        <f>PRODUCT(C22:F22)</f>
+        <v>5.4678451691557441</v>
+      </c>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="21"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="25"/>
+    </row>
+    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="40"/>
+      <c r="B23" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="42"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="33">
+        <f>SUM(G21:G22)</f>
+        <v>7.267845169155744</v>
+      </c>
+      <c r="H23" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="I23" s="33">
+        <v>4561.53</v>
+      </c>
+      <c r="J23" s="44">
+        <f>G23*I23</f>
+        <v>33152.493774458999</v>
+      </c>
+      <c r="K23" s="36"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="40"/>
+      <c r="B24" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="42"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="45">
+        <f>0.13*G23*(15452.6/5)</f>
+        <v>2919.9847107832975</v>
+      </c>
+      <c r="K24" s="36"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="40"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="36"/>
+    </row>
+    <row r="26" spans="1:19" ht="75" x14ac:dyDescent="0.25">
+      <c r="A26" s="18">
+        <v>4</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="19"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="21"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="25"/>
+    </row>
+    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="18"/>
+      <c r="B27" s="37" t="str">
+        <f>B10</f>
+        <v>-For wall</v>
+      </c>
+      <c r="C27" s="36">
+        <f>C10</f>
+        <v>1</v>
+      </c>
+      <c r="D27" s="38">
+        <f>D35</f>
+        <v>6</v>
+      </c>
+      <c r="E27" s="38">
+        <f>F35/2</f>
+        <v>2</v>
+      </c>
+      <c r="F27" s="38">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G27" s="39">
+        <f>PRODUCT(C27:F27)</f>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="21"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="25"/>
+    </row>
+    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="18"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="36">
+        <f>C27</f>
+        <v>1</v>
+      </c>
+      <c r="D28" s="38">
+        <f>D27</f>
+        <v>6</v>
+      </c>
+      <c r="E28" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="F28" s="38">
+        <v>0.05</v>
+      </c>
+      <c r="G28" s="39">
+        <f>PRODUCT(C28:F28)</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="21"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="25"/>
+    </row>
+    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="18"/>
+      <c r="B29" s="37" t="str">
+        <f>B36</f>
+        <v>-for side drain</v>
+      </c>
+      <c r="C29" s="36">
+        <v>1</v>
+      </c>
+      <c r="D29" s="38">
+        <f>D36</f>
+        <v>28.040231636696127</v>
+      </c>
+      <c r="E29" s="38">
+        <f>0.45+0.45+0.4</f>
+        <v>1.3</v>
+      </c>
+      <c r="F29" s="38">
+        <v>0.08</v>
+      </c>
+      <c r="G29" s="39">
+        <f t="shared" ref="G29:G30" si="0">PRODUCT(C29:F29)</f>
+        <v>2.9161840902163969</v>
+      </c>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="21"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="25"/>
+    </row>
+    <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="18"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="36">
+        <v>2</v>
+      </c>
+      <c r="D30" s="38">
+        <f>D29</f>
+        <v>28.040231636696127</v>
+      </c>
+      <c r="E30" s="38">
+        <v>0.45</v>
+      </c>
+      <c r="F30" s="38">
+        <v>0.05</v>
+      </c>
+      <c r="G30" s="39">
+        <f t="shared" si="0"/>
+        <v>1.2618104236513259</v>
+      </c>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="21"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="25"/>
+    </row>
+    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="40"/>
+      <c r="B31" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="42"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="33">
+        <f>SUM(G27:G30)</f>
+        <v>5.2279945138677224</v>
+      </c>
+      <c r="H31" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="I31" s="33">
+        <v>10634.5</v>
+      </c>
+      <c r="J31" s="44">
+        <f>G31*I31</f>
+        <v>55597.107657726294</v>
+      </c>
+      <c r="K31" s="36"/>
+    </row>
+    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="40"/>
+      <c r="B32" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="42"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="45">
+        <f>0.13*G31*((114907.3+6135.3)/15)</f>
+        <v>5484.3537557838054</v>
+      </c>
+      <c r="K32" s="36"/>
+    </row>
+    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="40"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="36"/>
+    </row>
+    <row r="34" spans="1:19" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A34" s="63">
+        <v>5</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="64"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="45"/>
+      <c r="K34" s="29"/>
+    </row>
+    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="18"/>
+      <c r="B35" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="36">
+        <v>1</v>
+      </c>
+      <c r="D35" s="38">
+        <v>6</v>
+      </c>
+      <c r="E35" s="38">
+        <f>((F35/2+0.5)/2)</f>
+        <v>1.25</v>
+      </c>
+      <c r="F35" s="38">
+        <v>4</v>
+      </c>
+      <c r="G35" s="39">
+        <f>PRODUCT(C35:F35)</f>
+        <v>30</v>
+      </c>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="21"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="25"/>
+      <c r="S35" s="25"/>
+    </row>
+    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="18"/>
+      <c r="B36" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="36">
+        <v>2</v>
+      </c>
+      <c r="D36" s="38">
+        <f>(57+35)/3.281</f>
+        <v>28.040231636696127</v>
+      </c>
+      <c r="E36" s="38">
+        <v>0.45</v>
+      </c>
+      <c r="F36" s="38">
+        <v>1.5</v>
+      </c>
+      <c r="G36" s="39">
+        <f>PRODUCT(C36:F36)</f>
+        <v>37.854312709539769</v>
+      </c>
+      <c r="H36" s="40"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="21"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="25"/>
+      <c r="S36" s="25"/>
+    </row>
+    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="40"/>
+      <c r="B37" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="42"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="33">
+        <f>SUM(G35:G36)</f>
+        <v>67.854312709539769</v>
+      </c>
+      <c r="H37" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="I37" s="33">
+        <v>9709.43</v>
+      </c>
+      <c r="J37" s="44">
+        <f>G37*I37</f>
+        <v>658826.6994513867</v>
+      </c>
+      <c r="K37" s="36"/>
+    </row>
+    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="40"/>
+      <c r="B38" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="42"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="45">
+        <f>0.13*G37*((27092.1)/5)</f>
+        <v>47796.211459311184</v>
+      </c>
+      <c r="K38" s="36"/>
+    </row>
+    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="40"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="36"/>
+    </row>
+    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="18">
+        <v>7</v>
+      </c>
+      <c r="B40" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" s="19">
+        <v>1</v>
+      </c>
+      <c r="D40" s="20"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="34">
+        <f t="shared" ref="G40" si="1">PRODUCT(C40:F40)</f>
+        <v>1</v>
+      </c>
+      <c r="H40" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="I40" s="23">
+        <v>500</v>
+      </c>
+      <c r="J40" s="34">
+        <f>G40*I40</f>
+        <v>500</v>
+      </c>
+      <c r="K40" s="21"/>
+      <c r="M40" s="25"/>
+    </row>
+    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="18"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="21"/>
+      <c r="M41" s="25"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="25"/>
+      <c r="S41" s="25"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42" s="40"/>
+      <c r="B42" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="47"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="41">
+        <f>SUM(J10:J40)</f>
+        <v>814364.72040002223</v>
+      </c>
+      <c r="K42" s="36"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43" s="58"/>
+      <c r="B43" s="61"/>
+      <c r="C43" s="62"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="60"/>
+      <c r="H43" s="60"/>
+      <c r="I43" s="60"/>
+      <c r="J43" s="60"/>
+      <c r="K43" s="57"/>
+    </row>
+    <row r="44" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="50"/>
+      <c r="B44" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" s="75">
+        <f>J42</f>
+        <v>814364.72040002223</v>
+      </c>
+      <c r="D44" s="75"/>
+      <c r="E44" s="39">
+        <v>100</v>
+      </c>
+      <c r="F44" s="51"/>
+      <c r="G44" s="52"/>
+      <c r="H44" s="51"/>
+      <c r="I44" s="53"/>
+      <c r="J44" s="54"/>
+      <c r="K44" s="55"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45" s="56"/>
+      <c r="B45" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45" s="78">
+        <v>300000</v>
+      </c>
+      <c r="D45" s="78"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="48"/>
+      <c r="H45" s="48"/>
+      <c r="I45" s="48"/>
+      <c r="J45" s="48"/>
+      <c r="K45" s="49"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A46" s="56"/>
+      <c r="B46" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" s="78">
+        <f>C45-C48-C49</f>
+        <v>285000</v>
+      </c>
+      <c r="D46" s="78"/>
+      <c r="E46" s="39">
+        <f>C46/C44*100</f>
+        <v>34.9966044526101</v>
+      </c>
+      <c r="F46" s="49"/>
+      <c r="G46" s="48"/>
+      <c r="H46" s="48"/>
+      <c r="I46" s="48"/>
+      <c r="J46" s="48"/>
+      <c r="K46" s="49"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A47" s="56"/>
+      <c r="B47" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="75">
+        <f>C44-C46</f>
+        <v>529364.72040002223</v>
+      </c>
+      <c r="D47" s="75"/>
+      <c r="E47" s="39">
+        <f>100-E46</f>
+        <v>65.0033955473899</v>
+      </c>
+      <c r="F47" s="49"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="48"/>
+      <c r="I47" s="48"/>
+      <c r="J47" s="48"/>
+      <c r="K47" s="49"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A48" s="56"/>
+      <c r="B48" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48" s="75">
+        <f>C45*0.03</f>
+        <v>9000</v>
+      </c>
+      <c r="D48" s="75"/>
+      <c r="E48" s="39">
+        <v>3</v>
+      </c>
+      <c r="F48" s="49"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="48"/>
+      <c r="I48" s="48"/>
+      <c r="J48" s="48"/>
+      <c r="K48" s="49"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="56"/>
+      <c r="B49" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49" s="75">
+        <f>C45*0.02</f>
+        <v>6000</v>
+      </c>
+      <c r="D49" s="75"/>
+      <c r="E49" s="39">
+        <v>2</v>
+      </c>
+      <c r="F49" s="49"/>
+      <c r="G49" s="48"/>
+      <c r="H49" s="48"/>
+      <c r="I49" s="48"/>
+      <c r="J49" s="48"/>
+      <c r="K49" s="49"/>
+    </row>
+    <row r="50" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="57"/>
+      <c r="B50" s="57"/>
+      <c r="C50" s="57"/>
+      <c r="D50" s="57"/>
+      <c r="E50" s="57"/>
+      <c r="F50" s="57"/>
+      <c r="G50" s="57"/>
+      <c r="H50" s="57"/>
+      <c r="I50" s="57"/>
+      <c r="J50" s="57"/>
+      <c r="K50" s="57"/>
+    </row>
+    <row r="51" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;LPrepared By:
+Kristal Suwal&amp;CChecked By:
+Er. Milan Phuyal&amp;RApproved By:
+Er. Prakash Singh Saud</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S101"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
+    <col min="6" max="6" width="8" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" customWidth="1"/>
+    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+    </row>
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+    </row>
+    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="73" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+    </row>
+    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="73" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+    </row>
+    <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="70" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="76" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="77" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="150" x14ac:dyDescent="0.25">
+      <c r="A9" s="29">
+        <v>1</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="N9" t="s">
+        <v>48</v>
+      </c>
+      <c r="O9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+      <c r="B10" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="36">
+        <v>1</v>
+      </c>
+      <c r="D10" s="38">
+        <f>D16</f>
+        <v>6.2</v>
+      </c>
+      <c r="E10" s="38">
+        <f>F31/2</f>
+        <v>1.94</v>
+      </c>
+      <c r="F10" s="38">
+        <v>2.5</v>
+      </c>
+      <c r="G10" s="39">
+        <f>PRODUCT(C10:F10)</f>
+        <v>30.07</v>
+      </c>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="21"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+    </row>
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
+      <c r="B11" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="36">
+        <v>1</v>
+      </c>
+      <c r="D11" s="38">
+        <v>20</v>
+      </c>
+      <c r="E11" s="38">
+        <f>10/3.281</f>
+        <v>3.047851264858275</v>
+      </c>
+      <c r="F11" s="38">
+        <v>0.15</v>
+      </c>
+      <c r="G11" s="39">
+        <f>PRODUCT(C11:F11)</f>
+        <v>9.1435537945748244</v>
+      </c>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="21"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+    </row>
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="23">
+        <f>SUM(G10:G11)</f>
+        <v>39.213553794574821</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="23">
+        <v>64.63</v>
+      </c>
+      <c r="J12" s="41">
+        <f>G12*I12</f>
+        <v>2534.3719817433707</v>
+      </c>
+      <c r="K12" s="21"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+    </row>
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
+      <c r="B13" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="41">
+        <f>0.13*G12*19284/360</f>
+        <v>273.07011744082087</v>
+      </c>
+      <c r="K13" s="21"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+    </row>
+    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="21"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+    </row>
+    <row r="15" spans="1:19" ht="105" x14ac:dyDescent="0.25">
+      <c r="A15" s="18">
+        <v>2</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="21"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+    </row>
+    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
+      <c r="B16" s="37" t="str">
+        <f>B20</f>
+        <v>-For wall</v>
+      </c>
+      <c r="C16" s="65">
+        <v>0.5</v>
+      </c>
+      <c r="D16" s="38">
+        <f>D20</f>
+        <v>6.2</v>
+      </c>
+      <c r="E16" s="38">
+        <f>E10/2</f>
+        <v>0.97</v>
+      </c>
+      <c r="F16" s="38">
+        <f>F10/2</f>
+        <v>1.25</v>
+      </c>
+      <c r="G16" s="39">
+        <f>PRODUCT(C16:F16)</f>
+        <v>3.75875</v>
+      </c>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="21"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+    </row>
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
+      <c r="B17" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="23">
+        <f>SUM(G16:G16)</f>
+        <v>3.75875</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" s="23">
+        <v>404.28</v>
+      </c>
+      <c r="J17" s="41">
+        <f>G17*I17</f>
+        <v>1519.58745</v>
+      </c>
+      <c r="K17" s="21"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+    </row>
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="21"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+    </row>
+    <row r="19" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+      <c r="A19" s="18">
+        <v>3</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="21"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
+    </row>
+    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
+      <c r="B20" s="37" t="str">
+        <f>B25</f>
+        <v>-For wall</v>
+      </c>
+      <c r="C20" s="36">
+        <f>C10</f>
+        <v>1</v>
+      </c>
+      <c r="D20" s="38">
+        <f>D25</f>
+        <v>6.2</v>
+      </c>
+      <c r="E20" s="38">
+        <f>E25</f>
+        <v>1.94</v>
+      </c>
+      <c r="F20" s="38">
+        <v>0.15</v>
+      </c>
+      <c r="G20" s="39">
+        <f>PRODUCT(C20:F20)</f>
+        <v>1.8042</v>
+      </c>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="21"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+    </row>
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="40"/>
+      <c r="B21" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="42"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="33">
+        <f>SUM(G20:G20)</f>
+        <v>1.8042</v>
+      </c>
+      <c r="H21" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="I21" s="33">
+        <v>4561.53</v>
+      </c>
+      <c r="J21" s="44">
+        <f>G21*I21</f>
+        <v>8229.912425999999</v>
+      </c>
+      <c r="K21" s="36"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="40"/>
+      <c r="B22" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="42"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="45">
+        <f>0.13*G21*(15452.6/5)</f>
+        <v>724.86910392000004</v>
+      </c>
+      <c r="K22" s="36"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="40"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="36"/>
+    </row>
+    <row r="24" spans="1:19" ht="75" x14ac:dyDescent="0.25">
+      <c r="A24" s="18">
+        <v>4</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="21"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
+    </row>
+    <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="18"/>
+      <c r="B25" s="37" t="str">
+        <f>B10</f>
+        <v>-For wall</v>
+      </c>
+      <c r="C25" s="36">
+        <f>C10</f>
+        <v>1</v>
+      </c>
+      <c r="D25" s="38">
+        <f>D31</f>
+        <v>6.2</v>
+      </c>
+      <c r="E25" s="38">
+        <f>F31/2</f>
+        <v>1.94</v>
+      </c>
+      <c r="F25" s="38">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G25" s="39">
+        <f>PRODUCT(C25:F25)</f>
+        <v>0.90210000000000001</v>
+      </c>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="21"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
+    </row>
+    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="18"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="36">
+        <f>C25</f>
+        <v>1</v>
+      </c>
+      <c r="D26" s="38">
+        <f>D25</f>
+        <v>6.2</v>
+      </c>
+      <c r="E26" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="F26" s="38">
+        <v>0.05</v>
+      </c>
+      <c r="G26" s="39">
+        <f>PRODUCT(C26:F26)</f>
+        <v>0.15500000000000003</v>
+      </c>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="21"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="25"/>
+    </row>
+    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="40"/>
+      <c r="B27" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="42"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="33">
+        <f>SUM(G25:G26)</f>
+        <v>1.0571000000000002</v>
+      </c>
+      <c r="H27" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="I27" s="33">
+        <v>10634.5</v>
+      </c>
+      <c r="J27" s="44">
+        <f>G27*I27</f>
+        <v>11241.729950000001</v>
+      </c>
+      <c r="K27" s="36"/>
+    </row>
+    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="40"/>
+      <c r="B28" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="42"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="45">
+        <f>0.13*G27*((114907.3+6135.3)/15)</f>
+        <v>1108.9358146533336</v>
+      </c>
+      <c r="K28" s="36"/>
+    </row>
+    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="40"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="36"/>
+    </row>
+    <row r="30" spans="1:19" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A30" s="63">
+        <v>5</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="64"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="29"/>
+    </row>
+    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="18"/>
+      <c r="B31" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="36">
+        <v>1</v>
+      </c>
+      <c r="D31" s="38">
+        <v>6.2</v>
+      </c>
+      <c r="E31" s="38">
+        <f>((4/2+0.5)/2)</f>
+        <v>1.25</v>
+      </c>
+      <c r="F31" s="38">
+        <v>3.88</v>
+      </c>
+      <c r="G31" s="39">
+        <f>PRODUCT(C31:F31)</f>
+        <v>30.07</v>
+      </c>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="21"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="25"/>
+      <c r="S31" s="25"/>
+    </row>
+    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="40"/>
+      <c r="B32" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="42"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="33">
+        <f>SUM(G31:G31)</f>
+        <v>30.07</v>
+      </c>
+      <c r="H32" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="I32" s="33">
+        <v>9709.43</v>
+      </c>
+      <c r="J32" s="44">
+        <f>G32*I32</f>
+        <v>291962.5601</v>
+      </c>
+      <c r="K32" s="36"/>
+    </row>
+    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="40"/>
+      <c r="B33" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="42"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="45">
+        <f>0.13*G32*((27092.1)/5)</f>
+        <v>21181.145622</v>
+      </c>
+      <c r="K33" s="36"/>
+    </row>
+    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="40"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="45"/>
+      <c r="K34" s="36"/>
+    </row>
+    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="18">
+        <v>6</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="19">
+        <v>1</v>
+      </c>
+      <c r="D35" s="20"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="34">
+        <f t="shared" ref="G35" si="0">PRODUCT(C35:F35)</f>
+        <v>1</v>
+      </c>
+      <c r="H35" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="I35" s="23">
+        <v>500</v>
+      </c>
+      <c r="J35" s="34">
+        <f>G35*I35</f>
+        <v>500</v>
+      </c>
+      <c r="K35" s="21"/>
+      <c r="M35" s="25"/>
+    </row>
+    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="18"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="41"/>
+      <c r="K36" s="21"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="25"/>
+      <c r="S36" s="25"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" s="40"/>
+      <c r="B37" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="47"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="41">
+        <f>SUM(J10:J35)</f>
+        <v>339276.18256575754</v>
+      </c>
+      <c r="K37" s="36"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A38" s="58"/>
+      <c r="B38" s="61"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="60"/>
+      <c r="J38" s="60"/>
+      <c r="K38" s="57"/>
+    </row>
+    <row r="39" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="50"/>
+      <c r="B39" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" s="75">
+        <f>J37</f>
+        <v>339276.18256575754</v>
+      </c>
+      <c r="D39" s="75"/>
+      <c r="E39" s="39">
+        <v>100</v>
+      </c>
+      <c r="F39" s="51"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="53"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="55"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A40" s="56"/>
+      <c r="B40" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="78">
+        <v>300000</v>
+      </c>
+      <c r="D40" s="78"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="48"/>
+      <c r="I40" s="48"/>
+      <c r="J40" s="48"/>
+      <c r="K40" s="49"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A41" s="56"/>
+      <c r="B41" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="78">
+        <f>C40-C43-C44</f>
+        <v>285000</v>
+      </c>
+      <c r="D41" s="78"/>
+      <c r="E41" s="39">
+        <f>C41/C39*100</f>
+        <v>84.00235991949188</v>
+      </c>
+      <c r="F41" s="49"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="48"/>
+      <c r="I41" s="48"/>
+      <c r="J41" s="48"/>
+      <c r="K41" s="49"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42" s="56"/>
+      <c r="B42" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="75">
+        <f>C39-C41</f>
+        <v>54276.182565757539</v>
+      </c>
+      <c r="D42" s="75"/>
+      <c r="E42" s="39">
+        <f>100-E41</f>
+        <v>15.99764008050812</v>
+      </c>
+      <c r="F42" s="49"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="48"/>
+      <c r="I42" s="48"/>
+      <c r="J42" s="48"/>
+      <c r="K42" s="49"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43" s="56"/>
+      <c r="B43" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" s="75">
+        <f>C40*0.03</f>
+        <v>9000</v>
+      </c>
+      <c r="D43" s="75"/>
+      <c r="E43" s="39">
+        <v>3</v>
+      </c>
+      <c r="F43" s="49"/>
+      <c r="G43" s="48"/>
+      <c r="H43" s="48"/>
+      <c r="I43" s="48"/>
+      <c r="J43" s="48"/>
+      <c r="K43" s="49"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A44" s="56"/>
+      <c r="B44" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C44" s="75">
+        <f>C40*0.02</f>
+        <v>6000</v>
+      </c>
+      <c r="D44" s="75"/>
       <c r="E44" s="39">
         <v>2</v>
       </c>
@@ -2395,727 +5534,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:S101"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-    </row>
-    <row r="2" spans="1:11" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="72" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-    </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-    </row>
-    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="73" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
-    </row>
-    <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="68">
-        <f>F29</f>
-        <v>338434.86688251753</v>
-      </c>
-      <c r="D6" s="69"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="68">
-        <f>I29</f>
-        <v>339276.18256575754</v>
-      </c>
-      <c r="K6" s="69"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="I7" s="78" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="78"/>
-      <c r="K7" s="78"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="76" t="str">
-        <f>'only wall'!A6:F6</f>
-        <v xml:space="preserve">Project:- सानागाउँ पिपलबोट देखी खत्री पाखा </v>
-      </c>
-      <c r="B8" s="76"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="I8" s="79" t="s">
-        <v>59</v>
-      </c>
-      <c r="J8" s="79"/>
-      <c r="K8" s="79"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="80" t="str">
-        <f>'only wall'!A7:F7</f>
-        <v>Location:- Shankharapur Municipality 9</v>
-      </c>
-      <c r="B9" s="80"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="I9" s="79" t="s">
-        <v>60</v>
-      </c>
-      <c r="J9" s="79"/>
-      <c r="K9" s="79"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="74" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="74" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="74" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="81" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="74" t="s">
-        <v>25</v>
-      </c>
-      <c r="K11" s="75" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="74"/>
-      <c r="B12" s="74"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" s="74"/>
-      <c r="K12" s="75"/>
-    </row>
-    <row r="13" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="27">
-        <f>'only wall'!A9</f>
-        <v>1</v>
-      </c>
-      <c r="B13" s="32" t="str">
-        <f>'only wall'!B9</f>
-        <v>Earthwork Excavation in Cutting., Roadway Excavation in all types of Soil by Mechanical  Means ., Road way Excavation in  all types of soil as per Drawing and technical specifications  including  removal of stumps and other deleterious matter, all lifts and lead as per Drawing and instruction of the Engineer.</v>
-      </c>
-      <c r="C13" s="12" t="str">
-        <f>'only wall'!H12</f>
-        <v>m3</v>
-      </c>
-      <c r="D13" s="12">
-        <f>'only wall'!G12</f>
-        <v>39.143553794574828</v>
-      </c>
-      <c r="E13" s="12">
-        <f>'only wall'!I12</f>
-        <v>64.63</v>
-      </c>
-      <c r="F13" s="12">
-        <f>D13*E13</f>
-        <v>2529.8478817433711</v>
-      </c>
-      <c r="G13" s="12">
-        <f>V!G12</f>
-        <v>39.213553794574821</v>
-      </c>
-      <c r="H13" s="12">
-        <f>V!I12</f>
-        <v>64.63</v>
-      </c>
-      <c r="I13" s="12">
-        <f>G13*H13</f>
-        <v>2534.3719817433707</v>
-      </c>
-      <c r="J13" s="28">
-        <f>I13-F13</f>
-        <v>4.5240999999996347</v>
-      </c>
-      <c r="K13" s="14"/>
-    </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="32" t="str">
-        <f>'only wall'!B13</f>
-        <v>VAT calculation</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12">
-        <f>'only wall'!J13</f>
-        <v>272.58266077415425</v>
-      </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12">
-        <f>V!J13</f>
-        <v>273.07011744082087</v>
-      </c>
-      <c r="J14" s="28">
-        <f>I14-F14</f>
-        <v>0.48745666666661691</v>
-      </c>
-      <c r="K14" s="14"/>
-    </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="14"/>
-    </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="27">
-        <f>'only wall'!A15</f>
-        <v>2</v>
-      </c>
-      <c r="B16" s="32" t="str">
-        <f>'only wall'!B15</f>
-        <v>Providing suitable material and Back filling behind abutment, wing wall and return wall complete as per Drawing and Technical Specifications., locally available material including compaction by tamping rod</v>
-      </c>
-      <c r="C16" s="12" t="str">
-        <f>'only wall'!H17</f>
-        <v>m3</v>
-      </c>
-      <c r="D16" s="12">
-        <f>'only wall'!G17</f>
-        <v>3.75</v>
-      </c>
-      <c r="E16" s="12">
-        <f>'only wall'!I17</f>
-        <v>404.28</v>
-      </c>
-      <c r="F16" s="12">
-        <f>D16*E16</f>
-        <v>1516.05</v>
-      </c>
-      <c r="G16" s="12">
-        <f>V!G17</f>
-        <v>3.75875</v>
-      </c>
-      <c r="H16" s="12">
-        <f>V!I17</f>
-        <v>404.28</v>
-      </c>
-      <c r="I16" s="12">
-        <f>G16*H16</f>
-        <v>1519.58745</v>
-      </c>
-      <c r="J16" s="28">
-        <f>I16-F16</f>
-        <v>3.5374500000000353</v>
-      </c>
-      <c r="K16" s="14"/>
-    </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="14"/>
-    </row>
-    <row r="18" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="27">
-        <f>'only wall'!A19</f>
-        <v>3</v>
-      </c>
-      <c r="B18" s="32" t="str">
-        <f>'only wall'!B19</f>
-        <v>Providing and laying of hand pack Stone soling with 150 to 200 mm thick stones and packing with smaller stone on prepared surface as per Drawing and Technical Specifications.</v>
-      </c>
-      <c r="C18" s="12" t="str">
-        <f>'only wall'!H21</f>
-        <v>m3</v>
-      </c>
-      <c r="D18" s="12">
-        <f>'only wall'!G21</f>
-        <v>1.7999999999999998</v>
-      </c>
-      <c r="E18" s="12">
-        <f>'only wall'!I21</f>
-        <v>4561.53</v>
-      </c>
-      <c r="F18" s="12">
-        <f>D18*E18</f>
-        <v>8210.753999999999</v>
-      </c>
-      <c r="G18" s="12">
-        <f>V!G21</f>
-        <v>1.8042</v>
-      </c>
-      <c r="H18" s="12">
-        <f>V!I21</f>
-        <v>4561.53</v>
-      </c>
-      <c r="I18" s="12">
-        <f>G18*H18</f>
-        <v>8229.912425999999</v>
-      </c>
-      <c r="J18" s="28">
-        <f>I18-F18</f>
-        <v>19.158425999999963</v>
-      </c>
-      <c r="K18" s="14"/>
-    </row>
-    <row r="19" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
-      <c r="B19" s="32" t="str">
-        <f>'only wall'!B22</f>
-        <v>VAT calculation</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12">
-        <f>'only wall'!J22</f>
-        <v>723.18167999999991</v>
-      </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12">
-        <f>V!J22</f>
-        <v>724.86910392000004</v>
-      </c>
-      <c r="J19" s="28">
-        <f>I19-F19</f>
-        <v>1.6874239200001284</v>
-      </c>
-      <c r="K19" s="14"/>
-    </row>
-    <row r="20" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="14"/>
-    </row>
-    <row r="21" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="27">
-        <f>'only wall'!A24</f>
-        <v>4</v>
-      </c>
-      <c r="B21" s="32" t="str">
-        <f>'only wall'!B24</f>
-        <v>Providing and laying of Plain/Reinforced Cement Concrete in Foundation complete as per Drawing and Technical Specifications, PCC Grade M 15</v>
-      </c>
-      <c r="C21" s="12" t="str">
-        <f>'only wall'!H27</f>
-        <v>m3</v>
-      </c>
-      <c r="D21" s="12">
-        <f>'only wall'!G27</f>
-        <v>1.0499999999999998</v>
-      </c>
-      <c r="E21" s="12">
-        <f>'only wall'!I27</f>
-        <v>10634.5</v>
-      </c>
-      <c r="F21" s="12">
-        <f>D21*E21</f>
-        <v>11166.224999999999</v>
-      </c>
-      <c r="G21" s="12">
-        <f>V!G27</f>
-        <v>1.0571000000000002</v>
-      </c>
-      <c r="H21" s="12">
-        <f>V!I27</f>
-        <v>10634.5</v>
-      </c>
-      <c r="I21" s="12">
-        <f>G21*H21</f>
-        <v>11241.729950000001</v>
-      </c>
-      <c r="J21" s="28">
-        <f>I21-F21</f>
-        <v>75.504950000002282</v>
-      </c>
-      <c r="K21" s="14"/>
-    </row>
-    <row r="22" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="27"/>
-      <c r="B22" s="32" t="str">
-        <f>'only wall'!B28</f>
-        <v>VAT calculation</v>
-      </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12">
-        <f>'only wall'!J28</f>
-        <v>1101.48766</v>
-      </c>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12">
-        <f>V!J28</f>
-        <v>1108.9358146533336</v>
-      </c>
-      <c r="J22" s="28">
-        <f>I22-F22</f>
-        <v>7.4481546533336314</v>
-      </c>
-      <c r="K22" s="14"/>
-    </row>
-    <row r="23" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="27"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="14"/>
-    </row>
-    <row r="24" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="27">
-        <f>'only wall'!A30</f>
-        <v>5</v>
-      </c>
-      <c r="B24" s="32" t="str">
-        <f>'only wall'!B30</f>
-        <v>Random Rubble Masonry, Providing and laying of Stone Masonry Work in Cement Mortar 1:6 in Foundation complete as per Drawing and Technical Specifications.</v>
-      </c>
-      <c r="C24" s="12" t="str">
-        <f>'only wall'!H32</f>
-        <v>m3</v>
-      </c>
-      <c r="D24" s="12">
-        <f>'only wall'!G32</f>
-        <v>30</v>
-      </c>
-      <c r="E24" s="12">
-        <f>'only wall'!I32</f>
-        <v>9709.43</v>
-      </c>
-      <c r="F24" s="12">
-        <f>D24*E24</f>
-        <v>291282.90000000002</v>
-      </c>
-      <c r="G24" s="12">
-        <f>V!G32</f>
-        <v>30.07</v>
-      </c>
-      <c r="H24" s="12">
-        <f>V!I32</f>
-        <v>9709.43</v>
-      </c>
-      <c r="I24" s="12">
-        <f>G24*H24</f>
-        <v>291962.5601</v>
-      </c>
-      <c r="J24" s="28">
-        <f>I24-F24</f>
-        <v>679.66009999997914</v>
-      </c>
-      <c r="K24" s="14"/>
-    </row>
-    <row r="25" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="27"/>
-      <c r="B25" s="32" t="str">
-        <f>'only wall'!B33</f>
-        <v>VAT calculation</v>
-      </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12">
-        <f>'only wall'!J33</f>
-        <v>21131.838000000003</v>
-      </c>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12">
-        <f>V!J33</f>
-        <v>21181.145622</v>
-      </c>
-      <c r="J25" s="28">
-        <f>I25-F25</f>
-        <v>49.307621999996627</v>
-      </c>
-      <c r="K25" s="14"/>
-    </row>
-    <row r="26" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="27"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="14"/>
-    </row>
-    <row r="27" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="27">
-        <f>'only wall'!A35</f>
-        <v>6</v>
-      </c>
-      <c r="B27" s="31" t="str">
-        <f>'only wall'!B35</f>
-        <v>Information board (सुचना पाटि)</v>
-      </c>
-      <c r="C27" s="12" t="str">
-        <f>'only wall'!H35</f>
-        <v>no.</v>
-      </c>
-      <c r="D27" s="12">
-        <f>'only wall'!G35</f>
-        <v>1</v>
-      </c>
-      <c r="E27" s="12">
-        <f>'only wall'!I35</f>
-        <v>500</v>
-      </c>
-      <c r="F27" s="12">
-        <f>D27*E27</f>
-        <v>500</v>
-      </c>
-      <c r="G27" s="12">
-        <f>V!G35</f>
-        <v>1</v>
-      </c>
-      <c r="H27" s="12">
-        <f>V!I35</f>
-        <v>500</v>
-      </c>
-      <c r="I27" s="12">
-        <f>G27*H27</f>
-        <v>500</v>
-      </c>
-      <c r="J27" s="28">
-        <f>I27-F27</f>
-        <v>0</v>
-      </c>
-      <c r="K27" s="14"/>
-    </row>
-    <row r="28" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="14"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7">
-        <f>SUM(F13:F27)</f>
-        <v>338434.86688251753</v>
-      </c>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7">
-        <f>SUM(I13:I27)</f>
-        <v>339276.18256575754</v>
-      </c>
-      <c r="J29" s="13">
-        <f>I29-F29</f>
-        <v>841.31568324001273</v>
-      </c>
-      <c r="K29" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
-  </mergeCells>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="85" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter xml:space="preserve">&amp;LPrepared By:
-&amp;CChecked By:
-&amp;RApproved By:
-</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S106"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3128,118 +5552,116 @@
     <col min="6" max="6" width="8" customWidth="1"/>
     <col min="7" max="7" width="8.5703125" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
     </row>
     <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
     </row>
     <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="85" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
+      <c r="A5" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="76" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
+      <c r="A6" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="82" t="s">
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="82"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="87" t="s">
+      <c r="A7" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="88" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" s="88"/>
-      <c r="J7" s="88"/>
-      <c r="K7" s="88"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -3311,19 +5733,19 @@
         <v>1</v>
       </c>
       <c r="D10" s="38">
-        <f>D17</f>
-        <v>6</v>
+        <f>D16</f>
+        <v>6.2</v>
       </c>
       <c r="E10" s="38">
-        <f>F35/2</f>
-        <v>2</v>
+        <f>F31/2</f>
+        <v>1.94</v>
       </c>
       <c r="F10" s="38">
         <v>2.5</v>
       </c>
       <c r="G10" s="39">
         <f>PRODUCT(C10:F10)</f>
-        <v>30</v>
+        <v>30.07</v>
       </c>
       <c r="H10" s="40"/>
       <c r="I10" s="40"/>
@@ -3339,28 +5761,25 @@
     </row>
     <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
-      <c r="B11" s="37" t="str">
-        <f>B22</f>
-        <v>-for side drain</v>
+      <c r="B11" s="37" t="s">
+        <v>58</v>
       </c>
       <c r="C11" s="36">
-        <f>C22</f>
         <v>1</v>
       </c>
       <c r="D11" s="38">
-        <f>D22</f>
-        <v>28.040231636696127</v>
+        <v>20</v>
       </c>
       <c r="E11" s="38">
-        <f>E22</f>
-        <v>1.3</v>
+        <f>10/3.281</f>
+        <v>3.047851264858275</v>
       </c>
       <c r="F11" s="38">
-        <v>2</v>
+        <v>0.15</v>
       </c>
       <c r="G11" s="39">
         <f>PRODUCT(C11:F11)</f>
-        <v>72.904602255409927</v>
+        <v>9.1435537945748244</v>
       </c>
       <c r="H11" s="40"/>
       <c r="I11" s="40"/>
@@ -3377,28 +5796,26 @@
     <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="36">
-        <v>1</v>
-      </c>
-      <c r="D12" s="38">
-        <f>D11</f>
-        <v>28.040231636696127</v>
-      </c>
-      <c r="E12" s="38">
-        <v>4</v>
-      </c>
-      <c r="F12" s="38">
-        <v>0.15</v>
-      </c>
-      <c r="G12" s="39">
-        <f>PRODUCT(C12:F12)</f>
-        <v>16.824138982017676</v>
-      </c>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
+        <v>40</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="23">
+        <f>SUM(G10:G11)</f>
+        <v>39.213553794574821</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="23">
+        <v>64.63</v>
+      </c>
+      <c r="J12" s="41">
+        <f>G12*I12</f>
+        <v>2534.3719817433707</v>
+      </c>
       <c r="K12" s="21"/>
       <c r="M12" s="25"/>
       <c r="N12" s="1"/>
@@ -3408,1300 +5825,7 @@
       <c r="R12" s="25"/>
       <c r="S12" s="25"/>
     </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="23">
-        <f>SUM(G10:G12)</f>
-        <v>119.7287412374276</v>
-      </c>
-      <c r="H13" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="I13" s="23">
-        <v>64.63</v>
-      </c>
-      <c r="J13" s="41">
-        <f>G13*I13</f>
-        <v>7738.0685461749454</v>
-      </c>
-      <c r="K13" s="21"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="25"/>
-    </row>
-    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="41">
-        <f>0.13*G13*19284/360</f>
-        <v>833.7510443970333</v>
-      </c>
-      <c r="K14" s="21"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="25"/>
-      <c r="S14" s="25"/>
-    </row>
-    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="21"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="25"/>
-    </row>
-    <row r="16" spans="1:19" ht="105" x14ac:dyDescent="0.25">
-      <c r="A16" s="18">
-        <v>2</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="21"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="25"/>
-    </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="36">
-        <v>0.5</v>
-      </c>
-      <c r="D17" s="38">
-        <f>D21</f>
-        <v>6</v>
-      </c>
-      <c r="E17" s="38">
-        <f>E10/2</f>
-        <v>1</v>
-      </c>
-      <c r="F17" s="38">
-        <f>F10/2</f>
-        <v>1.25</v>
-      </c>
-      <c r="G17" s="39">
-        <f>PRODUCT(C17:F17)</f>
-        <v>3.75</v>
-      </c>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="21"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="25"/>
-      <c r="S17" s="25"/>
-    </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="23">
-        <f>SUM(G17:G17)</f>
-        <v>3.75</v>
-      </c>
-      <c r="H18" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="I18" s="23">
-        <v>404.28</v>
-      </c>
-      <c r="J18" s="41">
-        <f>G18*I18</f>
-        <v>1516.05</v>
-      </c>
-      <c r="K18" s="21"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="25"/>
-      <c r="S18" s="25"/>
-    </row>
-    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="21"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="25"/>
-      <c r="S19" s="25"/>
-    </row>
-    <row r="20" spans="1:19" ht="90" x14ac:dyDescent="0.25">
-      <c r="A20" s="18">
-        <v>3</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="21"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="25"/>
-      <c r="S20" s="25"/>
-    </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-      <c r="B21" s="37" t="str">
-        <f>B17</f>
-        <v>-Road</v>
-      </c>
-      <c r="C21" s="36">
-        <f>C10</f>
-        <v>1</v>
-      </c>
-      <c r="D21" s="38">
-        <f>D27</f>
-        <v>6</v>
-      </c>
-      <c r="E21" s="38">
-        <f>E27</f>
-        <v>2</v>
-      </c>
-      <c r="F21" s="38">
-        <v>0.15</v>
-      </c>
-      <c r="G21" s="39">
-        <f>PRODUCT(C21:F21)</f>
-        <v>1.7999999999999998</v>
-      </c>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="21"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="25"/>
-      <c r="S21" s="25"/>
-    </row>
-    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
-      <c r="B22" s="37" t="str">
-        <f>B29</f>
-        <v>-for side drain</v>
-      </c>
-      <c r="C22" s="36">
-        <f>C29</f>
-        <v>1</v>
-      </c>
-      <c r="D22" s="38">
-        <f>D29</f>
-        <v>28.040231636696127</v>
-      </c>
-      <c r="E22" s="38">
-        <f>E29</f>
-        <v>1.3</v>
-      </c>
-      <c r="F22" s="38">
-        <v>0.15</v>
-      </c>
-      <c r="G22" s="39">
-        <f>PRODUCT(C22:F22)</f>
-        <v>5.4678451691557441</v>
-      </c>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="21"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="25"/>
-      <c r="S22" s="25"/>
-    </row>
-    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
-      <c r="B23" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="42"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="33">
-        <f>SUM(G21:G22)</f>
-        <v>7.267845169155744</v>
-      </c>
-      <c r="H23" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="I23" s="33">
-        <v>4561.53</v>
-      </c>
-      <c r="J23" s="44">
-        <f>G23*I23</f>
-        <v>33152.493774458999</v>
-      </c>
-      <c r="K23" s="36"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
-      <c r="B24" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="45">
-        <f>0.13*G23*(15452.6/5)</f>
-        <v>2919.9847107832975</v>
-      </c>
-      <c r="K24" s="36"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="36"/>
-    </row>
-    <row r="26" spans="1:19" ht="75" x14ac:dyDescent="0.25">
-      <c r="A26" s="18">
-        <v>4</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="21"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="25"/>
-      <c r="S26" s="25"/>
-    </row>
-    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
-      <c r="B27" s="37" t="str">
-        <f>B10</f>
-        <v>-For wall</v>
-      </c>
-      <c r="C27" s="36">
-        <f>C10</f>
-        <v>1</v>
-      </c>
-      <c r="D27" s="38">
-        <f>D35</f>
-        <v>6</v>
-      </c>
-      <c r="E27" s="38">
-        <f>F35/2</f>
-        <v>2</v>
-      </c>
-      <c r="F27" s="38">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="G27" s="39">
-        <f>PRODUCT(C27:F27)</f>
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="21"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="25"/>
-      <c r="S27" s="25"/>
-    </row>
-    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="36">
-        <f>C27</f>
-        <v>1</v>
-      </c>
-      <c r="D28" s="38">
-        <f>D27</f>
-        <v>6</v>
-      </c>
-      <c r="E28" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="F28" s="38">
-        <v>0.05</v>
-      </c>
-      <c r="G28" s="39">
-        <f>PRODUCT(C28:F28)</f>
-        <v>0.15000000000000002</v>
-      </c>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="21"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="25"/>
-      <c r="S28" s="25"/>
-    </row>
-    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
-      <c r="B29" s="37" t="str">
-        <f>B36</f>
-        <v>-for side drain</v>
-      </c>
-      <c r="C29" s="36">
-        <v>1</v>
-      </c>
-      <c r="D29" s="38">
-        <f>D36</f>
-        <v>28.040231636696127</v>
-      </c>
-      <c r="E29" s="38">
-        <f>0.45+0.45+0.4</f>
-        <v>1.3</v>
-      </c>
-      <c r="F29" s="38">
-        <v>0.08</v>
-      </c>
-      <c r="G29" s="39">
-        <f t="shared" ref="G29:G30" si="0">PRODUCT(C29:F29)</f>
-        <v>2.9161840902163969</v>
-      </c>
-      <c r="H29" s="40"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="21"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="25"/>
-      <c r="S29" s="25"/>
-    </row>
-    <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="18"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="36">
-        <v>2</v>
-      </c>
-      <c r="D30" s="38">
-        <f>D29</f>
-        <v>28.040231636696127</v>
-      </c>
-      <c r="E30" s="38">
-        <v>0.45</v>
-      </c>
-      <c r="F30" s="38">
-        <v>0.05</v>
-      </c>
-      <c r="G30" s="39">
-        <f t="shared" si="0"/>
-        <v>1.2618104236513259</v>
-      </c>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="21"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="25"/>
-      <c r="S30" s="25"/>
-    </row>
-    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="40"/>
-      <c r="B31" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="42"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="33">
-        <f>SUM(G27:G30)</f>
-        <v>5.2279945138677224</v>
-      </c>
-      <c r="H31" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="I31" s="33">
-        <v>10634.5</v>
-      </c>
-      <c r="J31" s="44">
-        <f>G31*I31</f>
-        <v>55597.107657726294</v>
-      </c>
-      <c r="K31" s="36"/>
-    </row>
-    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="40"/>
-      <c r="B32" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="42"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="45">
-        <f>0.13*G31*((114907.3+6135.3)/15)</f>
-        <v>5484.3537557838054</v>
-      </c>
-      <c r="K32" s="36"/>
-    </row>
-    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="36"/>
-    </row>
-    <row r="34" spans="1:19" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A34" s="63">
-        <v>5</v>
-      </c>
-      <c r="B34" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="C34" s="64"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="45"/>
-      <c r="K34" s="29"/>
-    </row>
-    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="18"/>
-      <c r="B35" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="36">
-        <v>1</v>
-      </c>
-      <c r="D35" s="38">
-        <v>6</v>
-      </c>
-      <c r="E35" s="38">
-        <f>((F35/2+0.5)/2)</f>
-        <v>1.25</v>
-      </c>
-      <c r="F35" s="38">
-        <v>4</v>
-      </c>
-      <c r="G35" s="39">
-        <f>PRODUCT(C35:F35)</f>
-        <v>30</v>
-      </c>
-      <c r="H35" s="40"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="40"/>
-      <c r="K35" s="21"/>
-      <c r="M35" s="25"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="25"/>
-      <c r="S35" s="25"/>
-    </row>
-    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="18"/>
-      <c r="B36" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="C36" s="36">
-        <v>2</v>
-      </c>
-      <c r="D36" s="38">
-        <f>(57+35)/3.281</f>
-        <v>28.040231636696127</v>
-      </c>
-      <c r="E36" s="38">
-        <v>0.45</v>
-      </c>
-      <c r="F36" s="38">
-        <v>1.5</v>
-      </c>
-      <c r="G36" s="39">
-        <f>PRODUCT(C36:F36)</f>
-        <v>37.854312709539769</v>
-      </c>
-      <c r="H36" s="40"/>
-      <c r="I36" s="40"/>
-      <c r="J36" s="40"/>
-      <c r="K36" s="21"/>
-      <c r="M36" s="25"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="25"/>
-      <c r="S36" s="25"/>
-    </row>
-    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="40"/>
-      <c r="B37" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37" s="42"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="33">
-        <f>SUM(G35:G36)</f>
-        <v>67.854312709539769</v>
-      </c>
-      <c r="H37" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="I37" s="33">
-        <v>9709.43</v>
-      </c>
-      <c r="J37" s="44">
-        <f>G37*I37</f>
-        <v>658826.6994513867</v>
-      </c>
-      <c r="K37" s="36"/>
-    </row>
-    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="40"/>
-      <c r="B38" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" s="42"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="43"/>
-      <c r="J38" s="45">
-        <f>0.13*G37*((27092.1)/5)</f>
-        <v>47796.211459311184</v>
-      </c>
-      <c r="K38" s="36"/>
-    </row>
-    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="40"/>
-      <c r="B39" s="37"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="45"/>
-      <c r="K39" s="36"/>
-    </row>
-    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="18">
-        <v>7</v>
-      </c>
-      <c r="B40" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C40" s="19">
-        <v>1</v>
-      </c>
-      <c r="D40" s="20"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="34">
-        <f t="shared" ref="G40" si="1">PRODUCT(C40:F40)</f>
-        <v>1</v>
-      </c>
-      <c r="H40" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="I40" s="23">
-        <v>500</v>
-      </c>
-      <c r="J40" s="34">
-        <f>G40*I40</f>
-        <v>500</v>
-      </c>
-      <c r="K40" s="21"/>
-      <c r="M40" s="25"/>
-    </row>
-    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="18"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="41"/>
-      <c r="K41" s="21"/>
-      <c r="M41" s="25"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="25"/>
-      <c r="S41" s="25"/>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="40"/>
-      <c r="B42" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42" s="47"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="41"/>
-      <c r="H42" s="41"/>
-      <c r="I42" s="41"/>
-      <c r="J42" s="41">
-        <f>SUM(J10:J40)</f>
-        <v>814364.72040002223</v>
-      </c>
-      <c r="K42" s="36"/>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="58"/>
-      <c r="B43" s="61"/>
-      <c r="C43" s="62"/>
-      <c r="D43" s="59"/>
-      <c r="E43" s="59"/>
-      <c r="F43" s="59"/>
-      <c r="G43" s="60"/>
-      <c r="H43" s="60"/>
-      <c r="I43" s="60"/>
-      <c r="J43" s="60"/>
-      <c r="K43" s="57"/>
-    </row>
-    <row r="44" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="50"/>
-      <c r="B44" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C44" s="86">
-        <f>J42</f>
-        <v>814364.72040002223</v>
-      </c>
-      <c r="D44" s="86"/>
-      <c r="E44" s="39">
-        <v>100</v>
-      </c>
-      <c r="F44" s="51"/>
-      <c r="G44" s="52"/>
-      <c r="H44" s="51"/>
-      <c r="I44" s="53"/>
-      <c r="J44" s="54"/>
-      <c r="K44" s="55"/>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="56"/>
-      <c r="B45" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C45" s="89">
-        <v>300000</v>
-      </c>
-      <c r="D45" s="89"/>
-      <c r="E45" s="39"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="48"/>
-      <c r="H45" s="48"/>
-      <c r="I45" s="48"/>
-      <c r="J45" s="48"/>
-      <c r="K45" s="49"/>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="56"/>
-      <c r="B46" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C46" s="89">
-        <f>C45-C48-C49</f>
-        <v>285000</v>
-      </c>
-      <c r="D46" s="89"/>
-      <c r="E46" s="39">
-        <f>C46/C44*100</f>
-        <v>34.9966044526101</v>
-      </c>
-      <c r="F46" s="49"/>
-      <c r="G46" s="48"/>
-      <c r="H46" s="48"/>
-      <c r="I46" s="48"/>
-      <c r="J46" s="48"/>
-      <c r="K46" s="49"/>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="56"/>
-      <c r="B47" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C47" s="86">
-        <f>C44-C46</f>
-        <v>529364.72040002223</v>
-      </c>
-      <c r="D47" s="86"/>
-      <c r="E47" s="39">
-        <f>100-E46</f>
-        <v>65.0033955473899</v>
-      </c>
-      <c r="F47" s="49"/>
-      <c r="G47" s="48"/>
-      <c r="H47" s="48"/>
-      <c r="I47" s="48"/>
-      <c r="J47" s="48"/>
-      <c r="K47" s="49"/>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="56"/>
-      <c r="B48" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C48" s="86">
-        <f>C45*0.03</f>
-        <v>9000</v>
-      </c>
-      <c r="D48" s="86"/>
-      <c r="E48" s="39">
-        <v>3</v>
-      </c>
-      <c r="F48" s="49"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="48"/>
-      <c r="I48" s="48"/>
-      <c r="J48" s="48"/>
-      <c r="K48" s="49"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="56"/>
-      <c r="B49" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C49" s="86">
-        <f>C45*0.02</f>
-        <v>6000</v>
-      </c>
-      <c r="D49" s="86"/>
-      <c r="E49" s="39">
-        <v>2</v>
-      </c>
-      <c r="F49" s="49"/>
-      <c r="G49" s="48"/>
-      <c r="H49" s="48"/>
-      <c r="I49" s="48"/>
-      <c r="J49" s="48"/>
-      <c r="K49" s="49"/>
-    </row>
-    <row r="50" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="57"/>
-      <c r="B50" s="57"/>
-      <c r="C50" s="57"/>
-      <c r="D50" s="57"/>
-      <c r="E50" s="57"/>
-      <c r="F50" s="57"/>
-      <c r="G50" s="57"/>
-      <c r="H50" s="57"/>
-      <c r="I50" s="57"/>
-      <c r="J50" s="57"/>
-      <c r="K50" s="57"/>
-    </row>
-    <row r="51" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;LPrepared By:
-Kristal Suwal&amp;CChecked By:
-Er. Milan Phuyal&amp;RApproved By:
-Er. Prakash Singh Saud</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S101"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
-    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" customWidth="1"/>
-    <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" customWidth="1"/>
-    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-    </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-    </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="72" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-    </row>
-    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-    </row>
-    <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="85" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
-    </row>
-    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="76" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="82" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="82"/>
-    </row>
-    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="87" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="88" t="s">
-        <v>62</v>
-      </c>
-      <c r="I7" s="88"/>
-      <c r="J7" s="88"/>
-      <c r="K7" s="88"/>
-    </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="N8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="150" x14ac:dyDescent="0.25">
-      <c r="A9" s="29">
-        <v>1</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="N9" t="s">
-        <v>48</v>
-      </c>
-      <c r="O9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="36">
-        <v>1</v>
-      </c>
-      <c r="D10" s="38">
-        <f>D16</f>
-        <v>6.2</v>
-      </c>
-      <c r="E10" s="38">
-        <f>F31/2</f>
-        <v>1.94</v>
-      </c>
-      <c r="F10" s="38">
-        <v>2.5</v>
-      </c>
-      <c r="G10" s="39">
-        <f>PRODUCT(C10:F10)</f>
-        <v>30.07</v>
-      </c>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="21"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="25"/>
-    </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="36">
-        <v>1</v>
-      </c>
-      <c r="D11" s="38">
-        <v>20</v>
-      </c>
-      <c r="E11" s="38">
-        <f>10/3.281</f>
-        <v>3.047851264858275</v>
-      </c>
-      <c r="F11" s="38">
-        <v>0.15</v>
-      </c>
-      <c r="G11" s="39">
-        <f>PRODUCT(C11:F11)</f>
-        <v>9.1435537945748244</v>
-      </c>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="21"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="25"/>
-    </row>
-    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="23">
-        <f>SUM(G10:G11)</f>
-        <v>39.213553794574821</v>
-      </c>
-      <c r="H12" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="I12" s="23">
-        <v>64.63</v>
-      </c>
-      <c r="J12" s="41">
-        <f>G12*I12</f>
-        <v>2534.3719817433707</v>
-      </c>
-      <c r="K12" s="21"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="25"/>
-    </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
       <c r="B13" s="37" t="s">
         <v>38</v>
@@ -4945,7 +6069,7 @@
       </c>
       <c r="K21" s="36"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="37" t="s">
         <v>38</v>
@@ -5095,7 +6219,7 @@
       </c>
       <c r="K27" s="36"/>
     </row>
-    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="37" t="s">
         <v>38</v>
@@ -5202,7 +6326,7 @@
       </c>
       <c r="K32" s="36"/>
     </row>
-    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="37" t="s">
         <v>38</v>
@@ -5314,16 +6438,16 @@
       <c r="J38" s="60"/>
       <c r="K38" s="57"/>
     </row>
-    <row r="39" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="50"/>
       <c r="B39" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="C39" s="86">
+        <v>61</v>
+      </c>
+      <c r="C39" s="75">
         <f>J37</f>
         <v>339276.18256575754</v>
       </c>
-      <c r="D39" s="86"/>
+      <c r="D39" s="75"/>
       <c r="E39" s="39">
         <v>100</v>
       </c>
@@ -5334,15 +6458,15 @@
       <c r="J39" s="54"/>
       <c r="K39" s="55"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="56"/>
       <c r="B40" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="89">
+      <c r="C40" s="78">
         <v>300000</v>
       </c>
-      <c r="D40" s="89"/>
+      <c r="D40" s="78"/>
       <c r="E40" s="39"/>
       <c r="F40" s="49"/>
       <c r="G40" s="48"/>
@@ -5351,16 +6475,16 @@
       <c r="J40" s="48"/>
       <c r="K40" s="49"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="56"/>
       <c r="B41" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C41" s="89">
+      <c r="C41" s="78">
         <f>C40-C43-C44</f>
         <v>285000</v>
       </c>
-      <c r="D41" s="89"/>
+      <c r="D41" s="78"/>
       <c r="E41" s="39">
         <f>C41/C39*100</f>
         <v>84.00235991949188</v>
@@ -5372,16 +6496,16 @@
       <c r="J41" s="48"/>
       <c r="K41" s="49"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="56"/>
       <c r="B42" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="86">
+      <c r="C42" s="75">
         <f>C39-C41</f>
         <v>54276.182565757539</v>
       </c>
-      <c r="D42" s="86"/>
+      <c r="D42" s="75"/>
       <c r="E42" s="39">
         <f>100-E41</f>
         <v>15.99764008050812</v>
@@ -5393,16 +6517,16 @@
       <c r="J42" s="48"/>
       <c r="K42" s="49"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="56"/>
       <c r="B43" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C43" s="86">
+      <c r="C43" s="75">
         <f>C40*0.03</f>
         <v>9000</v>
       </c>
-      <c r="D43" s="86"/>
+      <c r="D43" s="75"/>
       <c r="E43" s="39">
         <v>3</v>
       </c>
@@ -5413,1137 +6537,16 @@
       <c r="J43" s="48"/>
       <c r="K43" s="49"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="56"/>
-      <c r="B44" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C44" s="86">
-        <f>C40*0.02</f>
-        <v>6000</v>
-      </c>
-      <c r="D44" s="86"/>
-      <c r="E44" s="39">
-        <v>2</v>
-      </c>
-      <c r="F44" s="49"/>
-      <c r="G44" s="48"/>
-      <c r="H44" s="48"/>
-      <c r="I44" s="48"/>
-      <c r="J44" s="48"/>
-      <c r="K44" s="49"/>
-    </row>
-    <row r="45" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="57"/>
-      <c r="B45" s="57"/>
-      <c r="C45" s="57"/>
-      <c r="D45" s="57"/>
-      <c r="E45" s="57"/>
-      <c r="F45" s="57"/>
-      <c r="G45" s="57"/>
-      <c r="H45" s="57"/>
-      <c r="I45" s="57"/>
-      <c r="J45" s="57"/>
-      <c r="K45" s="57"/>
-    </row>
-    <row r="46" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
-  </mergeCells>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter xml:space="preserve">&amp;LPrepared By:
-&amp;CChecked By:
-&amp;RApproved By:
-</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S101"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
-    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" customWidth="1"/>
-    <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" customWidth="1"/>
-    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" hidden="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-    </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-    </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="72" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-    </row>
-    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-    </row>
-    <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="85" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
-    </row>
-    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="76" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="2"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="67" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="87" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="3"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="N8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="150" x14ac:dyDescent="0.25">
-      <c r="A9" s="29">
-        <v>1</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="N9" t="s">
-        <v>48</v>
-      </c>
-      <c r="O9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="36">
-        <v>1</v>
-      </c>
-      <c r="D10" s="38">
-        <f>D16</f>
-        <v>6.2</v>
-      </c>
-      <c r="E10" s="38">
-        <f>F31/2</f>
-        <v>1.94</v>
-      </c>
-      <c r="F10" s="38">
-        <v>2.5</v>
-      </c>
-      <c r="G10" s="39">
-        <f>PRODUCT(C10:F10)</f>
-        <v>30.07</v>
-      </c>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="21"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="25"/>
-    </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="36">
-        <v>1</v>
-      </c>
-      <c r="D11" s="38">
-        <v>20</v>
-      </c>
-      <c r="E11" s="38">
-        <f>10/3.281</f>
-        <v>3.047851264858275</v>
-      </c>
-      <c r="F11" s="38">
-        <v>0.15</v>
-      </c>
-      <c r="G11" s="39">
-        <f>PRODUCT(C11:F11)</f>
-        <v>9.1435537945748244</v>
-      </c>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="21"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="25"/>
-    </row>
-    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="23">
-        <f>SUM(G10:G11)</f>
-        <v>39.213553794574821</v>
-      </c>
-      <c r="H12" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="I12" s="23">
-        <v>64.63</v>
-      </c>
-      <c r="J12" s="41">
-        <f>G12*I12</f>
-        <v>2534.3719817433707</v>
-      </c>
-      <c r="K12" s="21"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="25"/>
-    </row>
-    <row r="13" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="41">
-        <f>0.13*G12*19284/360</f>
-        <v>273.07011744082087</v>
-      </c>
-      <c r="K13" s="21"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="25"/>
-    </row>
-    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="21"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="25"/>
-      <c r="S14" s="25"/>
-    </row>
-    <row r="15" spans="1:19" ht="105" x14ac:dyDescent="0.25">
-      <c r="A15" s="18">
-        <v>2</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="21"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="25"/>
-    </row>
-    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="37" t="str">
-        <f>B20</f>
-        <v>-For wall</v>
-      </c>
-      <c r="C16" s="65">
-        <v>0.5</v>
-      </c>
-      <c r="D16" s="38">
-        <f>D20</f>
-        <v>6.2</v>
-      </c>
-      <c r="E16" s="38">
-        <f>E10/2</f>
-        <v>0.97</v>
-      </c>
-      <c r="F16" s="38">
-        <f>F10/2</f>
-        <v>1.25</v>
-      </c>
-      <c r="G16" s="39">
-        <f>PRODUCT(C16:F16)</f>
-        <v>3.75875</v>
-      </c>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="21"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="25"/>
-    </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="23">
-        <f>SUM(G16:G16)</f>
-        <v>3.75875</v>
-      </c>
-      <c r="H17" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="I17" s="23">
-        <v>404.28</v>
-      </c>
-      <c r="J17" s="41">
-        <f>G17*I17</f>
-        <v>1519.58745</v>
-      </c>
-      <c r="K17" s="21"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="25"/>
-      <c r="S17" s="25"/>
-    </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="21"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="25"/>
-      <c r="S18" s="25"/>
-    </row>
-    <row r="19" spans="1:19" ht="90" x14ac:dyDescent="0.25">
-      <c r="A19" s="18">
-        <v>3</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="21"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="25"/>
-      <c r="S19" s="25"/>
-    </row>
-    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
-      <c r="B20" s="37" t="str">
-        <f>B25</f>
-        <v>-For wall</v>
-      </c>
-      <c r="C20" s="36">
-        <f>C10</f>
-        <v>1</v>
-      </c>
-      <c r="D20" s="38">
-        <f>D25</f>
-        <v>6.2</v>
-      </c>
-      <c r="E20" s="38">
-        <f>E25</f>
-        <v>1.94</v>
-      </c>
-      <c r="F20" s="38">
-        <v>0.15</v>
-      </c>
-      <c r="G20" s="39">
-        <f>PRODUCT(C20:F20)</f>
-        <v>1.8042</v>
-      </c>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="21"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="25"/>
-      <c r="S20" s="25"/>
-    </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
-      <c r="B21" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="42"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="33">
-        <f>SUM(G20:G20)</f>
-        <v>1.8042</v>
-      </c>
-      <c r="H21" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="I21" s="33">
-        <v>4561.53</v>
-      </c>
-      <c r="J21" s="44">
-        <f>G21*I21</f>
-        <v>8229.912425999999</v>
-      </c>
-      <c r="K21" s="36"/>
-    </row>
-    <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
-      <c r="B22" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="42"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="45">
-        <f>0.13*G21*(15452.6/5)</f>
-        <v>724.86910392000004</v>
-      </c>
-      <c r="K22" s="36"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="36"/>
-    </row>
-    <row r="24" spans="1:19" ht="75" x14ac:dyDescent="0.25">
-      <c r="A24" s="18">
-        <v>4</v>
-      </c>
-      <c r="B24" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="21"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="25"/>
-      <c r="S24" s="25"/>
-    </row>
-    <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="37" t="str">
-        <f>B10</f>
-        <v>-For wall</v>
-      </c>
-      <c r="C25" s="36">
-        <f>C10</f>
-        <v>1</v>
-      </c>
-      <c r="D25" s="38">
-        <f>D31</f>
-        <v>6.2</v>
-      </c>
-      <c r="E25" s="38">
-        <f>F31/2</f>
-        <v>1.94</v>
-      </c>
-      <c r="F25" s="38">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="G25" s="39">
-        <f>PRODUCT(C25:F25)</f>
-        <v>0.90210000000000001</v>
-      </c>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="21"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="25"/>
-      <c r="S25" s="25"/>
-    </row>
-    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="36">
-        <f>C25</f>
-        <v>1</v>
-      </c>
-      <c r="D26" s="38">
-        <f>D25</f>
-        <v>6.2</v>
-      </c>
-      <c r="E26" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="F26" s="38">
-        <v>0.05</v>
-      </c>
-      <c r="G26" s="39">
-        <f>PRODUCT(C26:F26)</f>
-        <v>0.15500000000000003</v>
-      </c>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="21"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="25"/>
-      <c r="S26" s="25"/>
-    </row>
-    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="40"/>
-      <c r="B27" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="42"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="33">
-        <f>SUM(G25:G26)</f>
-        <v>1.0571000000000002</v>
-      </c>
-      <c r="H27" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="I27" s="33">
-        <v>10634.5</v>
-      </c>
-      <c r="J27" s="44">
-        <f>G27*I27</f>
-        <v>11241.729950000001</v>
-      </c>
-      <c r="K27" s="36"/>
-    </row>
-    <row r="28" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="40"/>
-      <c r="B28" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="42"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="45">
-        <f>0.13*G27*((114907.3+6135.3)/15)</f>
-        <v>1108.9358146533336</v>
-      </c>
-      <c r="K28" s="36"/>
-    </row>
-    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="40"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="36"/>
-    </row>
-    <row r="30" spans="1:19" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A30" s="63">
-        <v>5</v>
-      </c>
-      <c r="B30" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="64"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="29"/>
-    </row>
-    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="18"/>
-      <c r="B31" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" s="36">
-        <v>1</v>
-      </c>
-      <c r="D31" s="38">
-        <v>6.2</v>
-      </c>
-      <c r="E31" s="38">
-        <f>((4/2+0.5)/2)</f>
-        <v>1.25</v>
-      </c>
-      <c r="F31" s="38">
-        <v>3.88</v>
-      </c>
-      <c r="G31" s="39">
-        <f>PRODUCT(C31:F31)</f>
-        <v>30.07</v>
-      </c>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="21"/>
-      <c r="M31" s="25"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="25"/>
-      <c r="S31" s="25"/>
-    </row>
-    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="40"/>
-      <c r="B32" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="42"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="33">
-        <f>SUM(G31:G31)</f>
-        <v>30.07</v>
-      </c>
-      <c r="H32" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="I32" s="33">
-        <v>9709.43</v>
-      </c>
-      <c r="J32" s="44">
-        <f>G32*I32</f>
-        <v>291962.5601</v>
-      </c>
-      <c r="K32" s="36"/>
-    </row>
-    <row r="33" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
-      <c r="B33" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="42"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="45">
-        <f>0.13*G32*((27092.1)/5)</f>
-        <v>21181.145622</v>
-      </c>
-      <c r="K33" s="36"/>
-    </row>
-    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="40"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="45"/>
-      <c r="K34" s="36"/>
-    </row>
-    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="18">
-        <v>6</v>
-      </c>
-      <c r="B35" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35" s="19">
-        <v>1</v>
-      </c>
-      <c r="D35" s="20"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="34">
-        <f t="shared" ref="G35" si="0">PRODUCT(C35:F35)</f>
-        <v>1</v>
-      </c>
-      <c r="H35" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="I35" s="23">
-        <v>500</v>
-      </c>
-      <c r="J35" s="34">
-        <f>G35*I35</f>
-        <v>500</v>
-      </c>
-      <c r="K35" s="21"/>
-      <c r="M35" s="25"/>
-    </row>
-    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="18"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="41"/>
-      <c r="K36" s="21"/>
-      <c r="M36" s="25"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="25"/>
-      <c r="S36" s="25"/>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="40"/>
-      <c r="B37" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="47"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="41"/>
-      <c r="J37" s="41">
-        <f>SUM(J10:J35)</f>
-        <v>339276.18256575754</v>
-      </c>
-      <c r="K37" s="36"/>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="58"/>
-      <c r="B38" s="61"/>
-      <c r="C38" s="62"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="59"/>
-      <c r="G38" s="60"/>
-      <c r="H38" s="60"/>
-      <c r="I38" s="60"/>
-      <c r="J38" s="60"/>
-      <c r="K38" s="57"/>
-    </row>
-    <row r="39" spans="1:19" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="50"/>
-      <c r="B39" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="C39" s="86">
-        <f>J37</f>
-        <v>339276.18256575754</v>
-      </c>
-      <c r="D39" s="86"/>
-      <c r="E39" s="39">
-        <v>100</v>
-      </c>
-      <c r="F39" s="51"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="51"/>
-      <c r="I39" s="53"/>
-      <c r="J39" s="54"/>
-      <c r="K39" s="55"/>
-    </row>
-    <row r="40" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="56"/>
-      <c r="B40" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C40" s="89">
-        <v>300000</v>
-      </c>
-      <c r="D40" s="89"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="48"/>
-      <c r="H40" s="48"/>
-      <c r="I40" s="48"/>
-      <c r="J40" s="48"/>
-      <c r="K40" s="49"/>
-    </row>
-    <row r="41" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="56"/>
-      <c r="B41" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C41" s="89">
-        <f>C40-C43-C44</f>
-        <v>285000</v>
-      </c>
-      <c r="D41" s="89"/>
-      <c r="E41" s="39">
-        <f>C41/C39*100</f>
-        <v>84.00235991949188</v>
-      </c>
-      <c r="F41" s="49"/>
-      <c r="G41" s="48"/>
-      <c r="H41" s="48"/>
-      <c r="I41" s="48"/>
-      <c r="J41" s="48"/>
-      <c r="K41" s="49"/>
-    </row>
-    <row r="42" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="56"/>
-      <c r="B42" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C42" s="86">
-        <f>C39-C41</f>
-        <v>54276.182565757539</v>
-      </c>
-      <c r="D42" s="86"/>
-      <c r="E42" s="39">
-        <f>100-E41</f>
-        <v>15.99764008050812</v>
-      </c>
-      <c r="F42" s="49"/>
-      <c r="G42" s="48"/>
-      <c r="H42" s="48"/>
-      <c r="I42" s="48"/>
-      <c r="J42" s="48"/>
-      <c r="K42" s="49"/>
-    </row>
-    <row r="43" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="56"/>
-      <c r="B43" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C43" s="86">
-        <f>C40*0.03</f>
-        <v>9000</v>
-      </c>
-      <c r="D43" s="86"/>
-      <c r="E43" s="39">
-        <v>3</v>
-      </c>
-      <c r="F43" s="49"/>
-      <c r="G43" s="48"/>
-      <c r="H43" s="48"/>
-      <c r="I43" s="48"/>
-      <c r="J43" s="48"/>
-      <c r="K43" s="49"/>
-    </row>
     <row r="44" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="56"/>
       <c r="B44" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="86">
+      <c r="C44" s="75">
         <f>C40*0.02</f>
         <v>6000</v>
       </c>
-      <c r="D44" s="86"/>
+      <c r="D44" s="75"/>
       <c r="E44" s="39">
         <v>2</v>
       </c>
@@ -6625,6 +6628,12 @@
     <row r="101" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C43:D43"/>
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="A7:F7"/>
@@ -6632,12 +6641,6 @@
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="C42:D42"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A6:F6"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
@@ -6673,113 +6676,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
     </row>
     <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
     </row>
     <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="82" t="s">
+      <c r="H6" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="82"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="87" t="s">
+      <c r="A7" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="88" t="s">
+      <c r="H7" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="88"/>
-      <c r="J7" s="88"/>
-      <c r="K7" s="88"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
     </row>
     <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -7449,11 +7452,11 @@
       <c r="B35" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="86">
+      <c r="C35" s="75">
         <f>J33</f>
         <v>340833.0745398635</v>
       </c>
-      <c r="D35" s="86"/>
+      <c r="D35" s="75"/>
       <c r="E35" s="39">
         <v>100</v>
       </c>
@@ -7469,10 +7472,10 @@
       <c r="B36" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="89">
+      <c r="C36" s="78">
         <v>300000</v>
       </c>
-      <c r="D36" s="89"/>
+      <c r="D36" s="78"/>
       <c r="E36" s="39"/>
       <c r="F36" s="49"/>
       <c r="G36" s="48"/>
@@ -7486,11 +7489,11 @@
       <c r="B37" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="89">
+      <c r="C37" s="78">
         <f>C36-C39-C40</f>
         <v>285000</v>
       </c>
-      <c r="D37" s="89"/>
+      <c r="D37" s="78"/>
       <c r="E37" s="39">
         <f>C37/C35*100</f>
         <v>83.618645398413847</v>
@@ -7507,11 +7510,11 @@
       <c r="B38" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="86">
+      <c r="C38" s="75">
         <f>C35-C37</f>
         <v>55833.074539863504</v>
       </c>
-      <c r="D38" s="86"/>
+      <c r="D38" s="75"/>
       <c r="E38" s="39">
         <f>100-E37</f>
         <v>16.381354601586153</v>
@@ -7528,11 +7531,11 @@
       <c r="B39" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="86">
+      <c r="C39" s="75">
         <f>C36*0.03</f>
         <v>9000</v>
       </c>
-      <c r="D39" s="86"/>
+      <c r="D39" s="75"/>
       <c r="E39" s="39">
         <v>3</v>
       </c>
@@ -7548,11 +7551,11 @@
       <c r="B40" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C40" s="86">
+      <c r="C40" s="75">
         <f>C36*0.02</f>
         <v>6000</v>
       </c>
-      <c r="D40" s="86"/>
+      <c r="D40" s="75"/>
       <c r="E40" s="39">
         <v>2</v>
       </c>
@@ -7634,13 +7637,6 @@
     <row r="97" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="A7:F7"/>
@@ -7649,6 +7645,13 @@
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
